--- a/crawlers/Results Monop/CalculDistance/TestDistance_matrix.xlsx
+++ b/crawlers/Results Monop/CalculDistance/TestDistance_matrix.xlsx
@@ -544,79 +544,79 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.28968253968254</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D2" s="2">
-        <v>0.594052180259077</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E2" s="2">
-        <v>0.866300366300366</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F2" s="2">
-        <v>0.828947368421053</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>0.850274725274725</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="H2" s="2">
-        <v>0.871345029239766</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I2" s="2">
-        <v>0.930714285714286</v>
+        <v>0.975</v>
       </c>
       <c r="J2" s="2">
-        <v>0.849206349206349</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>0.925546448087432</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0.966666666666667</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0.972677595628415</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
-        <v>0.974358974358974</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>0.986666666666667</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2">
-        <v>0.951612903225806</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.968253968253968</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>0.987878787878788</v>
+        <v>1</v>
       </c>
       <c r="S2" s="2">
-        <v>0.986666666666667</v>
+        <v>1</v>
       </c>
       <c r="T2" s="2">
-        <v>0.925227113906359</v>
+        <v>1</v>
       </c>
       <c r="U2" s="2">
-        <v>0.980392156862745</v>
+        <v>1</v>
       </c>
       <c r="V2" s="2">
-        <v>0.932017543859649</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2">
-        <v>0.974842767295597</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2">
-        <v>0.982905982905983</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="2">
-        <v>0.970588235294118</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="2">
-        <v>0.942760942760943</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.981132075471698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -624,82 +624,82 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.28968253968254</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.458333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E3" s="2">
-        <v>0.920346628679962</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F3" s="2">
-        <v>0.749034749034749</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0.712454212454212</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.943833943833944</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I3" s="2">
-        <v>0.931227106227106</v>
+        <v>0.975</v>
       </c>
       <c r="J3" s="2">
-        <v>0.904069767441861</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0.920081967213115</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0.967213114754098</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0.973118279569892</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0.974683544303797</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>0.986842105263158</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2">
-        <v>0.958333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>0.988095238095238</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="T3" s="2">
-        <v>0.918937805730258</v>
+        <v>1</v>
       </c>
       <c r="U3" s="2">
-        <v>0.980676328502415</v>
+        <v>1</v>
       </c>
       <c r="V3" s="2">
-        <v>0.932359307359307</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
-        <v>0.975308641975309</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
-        <v>0.983122362869198</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="2">
-        <v>0.971014492753623</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <v>0.937710437710438</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.981481481481481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -707,82 +707,82 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.594052180259077</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="C4" s="2">
-        <v>0.458333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0.917714094184682</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F4" s="2">
-        <v>0.723502304147466</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0.730392156862745</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="2">
-        <v>0.949786324786325</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I4" s="2">
-        <v>0.929166666666667</v>
+        <v>0.975</v>
       </c>
       <c r="J4" s="2">
-        <v>0.904139433551198</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>0.975308641975309</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0.96078431372549</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0.967948717948718</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>0.981220657276995</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>0.973958333333333</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
-        <v>0.950617283950617</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.96969696969697</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>0.99290780141844</v>
+        <v>1</v>
       </c>
       <c r="S4" s="2">
-        <v>0.983739837398374</v>
+        <v>1</v>
       </c>
       <c r="T4" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2">
-        <v>0.977401129943503</v>
+        <v>1</v>
       </c>
       <c r="V4" s="2">
-        <v>0.970149253731343</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
-        <v>0.96969696969697</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
-        <v>0.980676328502415</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2">
-        <v>0.972222222222222</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="2">
-        <v>0.943274853801169</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.977272727272727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -790,31 +790,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.866300366300366</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="C5" s="2">
-        <v>0.920346628679962</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="D5" s="2">
-        <v>0.917714094184682</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.944444444444444</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0.738888888888889</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="H5" s="2">
-        <v>0.694444444444444</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>0.807692307692308</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>0.986666666666667</v>
+        <v>0.96</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -873,82 +873,82 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.828947368421053</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.749034749034749</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.723502304147466</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>0.944444444444444</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.853846153846154</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0.978835978835979</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0.972677595628415</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>0.972677595628415</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>0.974358974358974</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
-        <v>0.643835616438356</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0.957671957671958</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.973958333333333</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>0.994047619047619</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>0.979591836734694</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2">
-        <v>0.982142857142857</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2">
-        <v>0.990476190476191</v>
+        <v>1</v>
       </c>
       <c r="V6" s="2">
-        <v>0.958904109589041</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2">
-        <v>0.987878787878788</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2">
-        <v>0.658333333333333</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.970588235294118</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="2">
-        <v>0.985074626865672</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="2">
-        <v>0.981132075471698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -956,31 +956,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.850274725274725</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="C7" s="2">
-        <v>0.712454212454212</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="2">
-        <v>0.730392156862745</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="2">
-        <v>0.738888888888889</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="F7" s="2">
-        <v>0.853846153846154</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0.898648648648649</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="I7" s="2">
-        <v>0.815789473684211</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="J7" s="2">
-        <v>0.920987654320988</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1039,31 +1039,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.871345029239766</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="C8" s="2">
-        <v>0.943833943833944</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="D8" s="2">
-        <v>0.949786324786325</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="E8" s="2">
-        <v>0.694444444444444</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0.898648648648649</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0.775681341719078</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="J8" s="2">
-        <v>0.71323312702623</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>0.975490196078431</v>
+        <v>0.926470588235294</v>
       </c>
       <c r="S8" s="2">
-        <v>0.942028985507246</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="Y8" s="2">
-        <v>0.995726495726496</v>
+        <v>0.987179487179487</v>
       </c>
       <c r="Z8" s="2">
-        <v>0.993589743589744</v>
+        <v>0.980769230769231</v>
       </c>
       <c r="AA8" s="2">
-        <v>0.950617283950617</v>
+        <v>0.851851851851852</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1122,82 +1122,82 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.930714285714286</v>
+        <v>0.975</v>
       </c>
       <c r="C9" s="2">
-        <v>0.931227106227106</v>
+        <v>0.975</v>
       </c>
       <c r="D9" s="2">
-        <v>0.929166666666667</v>
+        <v>0.975</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.947368421052632</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.847457627118644</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.942857142857143</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0.981132075471698</v>
+      </c>
+      <c r="AA9" s="2">
         <v>0.833333333333333</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.933333333333333</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.815789473684211</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.775681341719078</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.852998696219035</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.980952380952381</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.951388888888889</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0.993710691823899</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0.944444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1205,82 +1205,82 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.849206349206349</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>0.904069767441861</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>0.904139433551198</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>0.807692307692308</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>0.920987654320988</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0.71323312702623</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I10" s="2">
-        <v>0.852998696219035</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0.973544973544973</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0.961111111111111</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0.961111111111111</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>0.97008547008547</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
-        <v>0.962441314553991</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>0.952380952380952</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.950819672131147</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>0.955106621773288</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="S10" s="2">
-        <v>0.904416505480335</v>
+        <v>0.840909090909091</v>
       </c>
       <c r="T10" s="2">
-        <v>0.96969696969697</v>
+        <v>1</v>
       </c>
       <c r="U10" s="2">
-        <v>0.980676328502415</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2">
-        <v>0.954337899543379</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2">
-        <v>0.975308641975309</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2">
-        <v>0.983122362869198</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.961241830065359</v>
+        <v>0.986666666666667</v>
       </c>
       <c r="Z10" s="2">
-        <v>0.966210613598673</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.950091575091575</v>
+        <v>0.946428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1288,19 +1288,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.925546448087432</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>0.920081967213115</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.975308641975309</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0.978835978835979</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1312,58 +1312,58 @@
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>0.973544973544973</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>0.487373737373737</v>
+        <v>0.25</v>
       </c>
       <c r="M11" s="2">
-        <v>0.537373737373737</v>
+        <v>0.4</v>
       </c>
       <c r="N11" s="2">
-        <v>0.776515151515152</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>0.881547619047619</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.875555555555555</v>
+        <v>0.8</v>
       </c>
       <c r="R11" s="2">
-        <v>0.981481481481481</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2">
-        <v>0.858620689655172</v>
+        <v>1</v>
       </c>
       <c r="T11" s="2">
-        <v>0.895424836601307</v>
+        <v>1</v>
       </c>
       <c r="U11" s="2">
-        <v>0.963414634146341</v>
+        <v>1</v>
       </c>
       <c r="V11" s="2">
-        <v>0.888389513108614</v>
+        <v>1</v>
       </c>
       <c r="W11" s="2">
-        <v>0.96078431372549</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2">
-        <v>0.959259259259259</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.95703933747412</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="Z11" s="2">
-        <v>0.957805907172996</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="2">
-        <v>0.976190476190476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1371,19 +1371,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.966666666666667</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>0.967213114754098</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0.96078431372549</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0.972677595628415</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1395,58 +1395,58 @@
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>0.961111111111111</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>0.487373737373737</v>
+        <v>0.25</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0.273333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N12" s="2">
-        <v>0.775862068965517</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
-        <v>0.895470383275261</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>0.807219662058372</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.885885885885886</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="R12" s="2">
-        <v>0.965686274509804</v>
+        <v>1</v>
       </c>
       <c r="S12" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2">
-        <v>0.950248756218905</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="W12" s="2">
-        <v>0.948717948717949</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
-        <v>0.967032967032967</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.952257394914375</v>
+        <v>0.978723404255319</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.97119341563786</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.975845410628019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1454,19 +1454,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.972677595628415</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>0.973118279569892</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.967948717948718</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0.972677595628415</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1478,58 +1478,58 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>0.961111111111111</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>0.537373737373737</v>
+        <v>0.4</v>
       </c>
       <c r="L13" s="2">
-        <v>0.273333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0.764430014430014</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="O13" s="2">
-        <v>0.900172117039587</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
-        <v>0.807219662058372</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.824961948249619</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R13" s="2">
-        <v>0.965686274509804</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T13" s="2">
-        <v>0.950248756218905</v>
+        <v>1</v>
       </c>
       <c r="U13" s="2">
-        <v>0.958333333333333</v>
+        <v>1</v>
       </c>
       <c r="V13" s="2">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="W13" s="2">
-        <v>0.942708333333333</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="2">
-        <v>0.947788065843621</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.97119341563786</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="2">
-        <v>0.970588235294118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1537,19 +1537,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.974358974358974</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>0.974683544303797</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0.981220657276995</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>0.986666666666667</v>
+        <v>0.96</v>
       </c>
       <c r="F14" s="2">
-        <v>0.974358974358974</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1561,58 +1561,58 @@
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>0.97008547008547</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>0.776515151515152</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0.775862068965517</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0.764430014430014</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0.830469644902635</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>0.810720470379767</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.828347578347578</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="R14" s="2">
-        <v>0.89367816091954</v>
+        <v>1</v>
       </c>
       <c r="S14" s="2">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2">
-        <v>0.965116279069767</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2">
-        <v>0.96969696969697</v>
+        <v>1</v>
       </c>
       <c r="V14" s="2">
-        <v>0.955128205128205</v>
+        <v>1</v>
       </c>
       <c r="W14" s="2">
-        <v>0.964285714285714</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2">
-        <v>0.958730158730159</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="2">
-        <v>0.976430976430976</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="2">
-        <v>0.98876404494382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1620,19 +1620,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.986666666666667</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>0.986842105263158</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0.973958333333333</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0.643835616438356</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1644,58 +1644,58 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>0.962441314553991</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>0.881547619047619</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0.895470383275261</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0.900172117039587</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0.830469644902635</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0.799003322259136</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.889542483660131</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>0.910689170182841</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2">
-        <v>0.748356807511737</v>
+        <v>1</v>
       </c>
       <c r="T15" s="2">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="U15" s="2">
-        <v>0.95970695970696</v>
+        <v>1</v>
       </c>
       <c r="V15" s="2">
-        <v>0.940350877192982</v>
+        <v>1</v>
       </c>
       <c r="W15" s="2">
-        <v>0.956709956709957</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2">
-        <v>0.626666666666667</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.943820224719101</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="2">
-        <v>0.974910394265233</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="2">
-        <v>0.979423868312757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1703,19 +1703,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.951612903225806</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>0.958333333333333</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0.950617283950617</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>0.957671957671958</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1727,58 +1727,58 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
         <v>0.952380952380952</v>
       </c>
-      <c r="K16" s="2">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.807219662058372</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.807219662058372</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.810720470379767</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.799003322259136</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.884615384615385</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0.907407407407407</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.736507936507937</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.953703703703704</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0.96078431372549</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0.940074906367041</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0.936507936507937</v>
-      </c>
       <c r="X16" s="2">
-        <v>0.960992907801418</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="2">
-        <v>0.948412698412698</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <v>0.958210784313726</v>
+        <v>0.96875</v>
       </c>
       <c r="AA16" s="2">
-        <v>0.972602739726027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1786,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.968253968253968</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0.96969696969697</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>0.973958333333333</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1810,58 +1810,58 @@
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>0.950819672131147</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>0.875555555555555</v>
+        <v>0.8</v>
       </c>
       <c r="L17" s="2">
-        <v>0.885885885885886</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="M17" s="2">
-        <v>0.824961948249619</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N17" s="2">
-        <v>0.828347578347578</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="O17" s="2">
-        <v>0.889542483660131</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
-        <v>0.884615384615385</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <v>0.628571428571429</v>
+        <v>1</v>
       </c>
       <c r="S17" s="2">
-        <v>0.844444444444444</v>
+        <v>1</v>
       </c>
       <c r="T17" s="2">
-        <v>0.952380952380952</v>
+        <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>0.959839357429719</v>
+        <v>1</v>
       </c>
       <c r="V17" s="2">
-        <v>0.968085106382979</v>
+        <v>1</v>
       </c>
       <c r="W17" s="2">
-        <v>0.961904761904762</v>
+        <v>1</v>
       </c>
       <c r="X17" s="2">
-        <v>0.96415770609319</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.965116279069767</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="2">
-        <v>0.972222222222222</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="2">
-        <v>0.950248756218905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1869,82 +1869,82 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.987878787878788</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>0.988095238095238</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>0.99290780141844</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>0.994047619047619</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0.975490196078431</v>
+        <v>0.926470588235294</v>
       </c>
       <c r="I18" s="2">
-        <v>0.980952380952381</v>
+        <v>0.942857142857143</v>
       </c>
       <c r="J18" s="2">
-        <v>0.955106621773288</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="K18" s="2">
-        <v>0.981481481481481</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0.965686274509804</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0.965686274509804</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>0.89367816091954</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>0.910689170182841</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
-        <v>0.907407407407407</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.628571428571429</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0.861784511784512</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="T18" s="2">
-        <v>0.973544973544973</v>
+        <v>1</v>
       </c>
       <c r="U18" s="2">
-        <v>0.987179487179487</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2">
-        <v>0.984674329501916</v>
+        <v>1</v>
       </c>
       <c r="W18" s="2">
-        <v>0.989583333333333</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2">
-        <v>0.988636363636364</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <v>0.979111319477002</v>
+        <v>0.962025316455696</v>
       </c>
       <c r="Z18" s="2">
-        <v>0.972474066813689</v>
+        <v>0.943396226415094</v>
       </c>
       <c r="AA18" s="2">
-        <v>0.937087342010941</v>
+        <v>0.859649122807018</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1952,82 +1952,82 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.986666666666667</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0.983739837398374</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>0.979591836734694</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0.942028985507246</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="I19" s="2">
-        <v>0.951388888888889</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="J19" s="2">
-        <v>0.904416505480335</v>
+        <v>0.840909090909091</v>
       </c>
       <c r="K19" s="2">
-        <v>0.858620689655172</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>0.748356807511737</v>
+        <v>1</v>
       </c>
       <c r="P19" s="2">
-        <v>0.736507936507937</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.844444444444444</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>0.861784511784512</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>0.958333333333333</v>
+        <v>1</v>
       </c>
       <c r="U19" s="2">
-        <v>0.981481481481481</v>
+        <v>1</v>
       </c>
       <c r="V19" s="2">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="W19" s="2">
-        <v>0.970238095238095</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>0.983739837398374</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2">
         <v>0.972222222222222</v>
       </c>
-      <c r="Z19" s="2">
-        <v>0.971693121693122</v>
-      </c>
       <c r="AA19" s="2">
-        <v>0.937950937950938</v>
+        <v>0.904761904761905</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2035,19 +2035,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.925227113906359</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>0.918937805730258</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>0.982142857142857</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -2059,58 +2059,58 @@
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>0.96969696969697</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0.895424836601307</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0.950248756218905</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0.950248756218905</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>0.965116279069767</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2">
-        <v>0.953703703703704</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.952380952380952</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>0.973544973544973</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2">
-        <v>0.958333333333333</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>0.723809523809524</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="V20" s="2">
-        <v>0.754945054945055</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="W20" s="2">
-        <v>0.794532627865961</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="X20" s="2">
-        <v>0.695833333333333</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="2">
-        <v>0.810147392290249</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="Z20" s="2">
-        <v>0.728695652173913</v>
+        <v>0.96</v>
       </c>
       <c r="AA20" s="2">
-        <v>0.701307189542484</v>
+        <v>0.970588235294118</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2118,19 +2118,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.980392156862745</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>0.980676328502415</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>0.977401129943503</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>0.990476190476191</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -2142,58 +2142,58 @@
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <v>0.980676328502415</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>0.963414634146341</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0.958333333333333</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
-        <v>0.96969696969697</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
-        <v>0.95970695970696</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>0.96078431372549</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.959839357429719</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
-        <v>0.987179487179487</v>
+        <v>1</v>
       </c>
       <c r="S21" s="2">
-        <v>0.981481481481481</v>
+        <v>1</v>
       </c>
       <c r="T21" s="2">
-        <v>0.723809523809524</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>0.804232804232804</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="W21" s="2">
-        <v>0.841204582191299</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="X21" s="2">
-        <v>0.633333333333333</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.865199161425577</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="Z21" s="2">
-        <v>0.784875922199866</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="AA21" s="2">
-        <v>0.821056350468115</v>
+        <v>0.972972972972973</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2201,19 +2201,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.932017543859649</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>0.932359307359307</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0.970149253731343</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>0.958904109589041</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -2225,58 +2225,58 @@
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>0.954337899543379</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>0.888389513108614</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0.941176470588235</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0.955128205128205</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
-        <v>0.940350877192982</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>0.940074906367041</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.968085106382979</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
-        <v>0.984674329501916</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2">
-        <v>0.754945054945055</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="U22" s="2">
-        <v>0.804232804232804</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <v>0.867965367965368</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="X22" s="2">
-        <v>0.876094276094276</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.859433551198257</v>
+        <v>0.96</v>
       </c>
       <c r="Z22" s="2">
-        <v>0.87050505050505</v>
+        <v>0.96</v>
       </c>
       <c r="AA22" s="2">
-        <v>0.886492374727669</v>
+        <v>0.970588235294118</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2284,82 +2284,82 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.974842767295597</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>0.975308641975309</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.941176470588235</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AA23" s="2">
         <v>0.96969696969697</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.987878787878788</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.975308641975309</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.96078431372549</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.948717948717949</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.942708333333333</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.964285714285714</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.956709956709957</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.936507936507937</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.961904761904762</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.989583333333333</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.970238095238095</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.794532627865961</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0.841204582191299</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0.867965367965368</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0.794992175273865</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0.853137254901961</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0.806216931216931</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>0.82521645021645</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2367,19 +2367,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.982905982905983</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>0.983122362869198</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0.980676328502415</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>0.658333333333333</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -2391,58 +2391,58 @@
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>0.983122362869198</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0.959259259259259</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0.967032967032967</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>0.958730158730159</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
-        <v>0.626666666666667</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0.960992907801418</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.96415770609319</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
-        <v>0.988636363636364</v>
+        <v>1</v>
       </c>
       <c r="S24" s="2">
-        <v>0.983739837398374</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2">
-        <v>0.695833333333333</v>
+        <v>1</v>
       </c>
       <c r="U24" s="2">
-        <v>0.633333333333333</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2">
-        <v>0.876094276094276</v>
+        <v>1</v>
       </c>
       <c r="W24" s="2">
-        <v>0.794992175273865</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <v>0.803379416282642</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="2">
-        <v>0.62719298245614</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="2">
-        <v>0.615384615384615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2450,82 +2450,82 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.970588235294118</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>0.971014492753623</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0.972222222222222</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>0.970588235294118</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>0.995726495726496</v>
+        <v>0.987179487179487</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="2">
-        <v>0.961241830065359</v>
+        <v>0.986666666666667</v>
       </c>
       <c r="K25" s="2">
-        <v>0.95703933747412</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="L25" s="2">
-        <v>0.952257394914375</v>
+        <v>0.978723404255319</v>
       </c>
       <c r="M25" s="2">
-        <v>0.947788065843621</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="N25" s="2">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
-        <v>0.943820224719101</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2">
-        <v>0.948412698412698</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.965116279069767</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>0.979111319477002</v>
+        <v>0.962025316455696</v>
       </c>
       <c r="S25" s="2">
-        <v>0.972222222222222</v>
+        <v>1</v>
       </c>
       <c r="T25" s="2">
-        <v>0.810147392290249</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="U25" s="2">
-        <v>0.865199161425577</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="V25" s="2">
-        <v>0.859433551198257</v>
+        <v>0.96</v>
       </c>
       <c r="W25" s="2">
-        <v>0.853137254901961</v>
+        <v>0.98</v>
       </c>
       <c r="X25" s="2">
-        <v>0.803379416282642</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="2">
         <v>0</v>
       </c>
       <c r="Z25" s="2">
-        <v>0.822791164658635</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="2">
-        <v>0.788515406162465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2533,82 +2533,82 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.942760942760943</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>0.937710437710438</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>0.943274853801169</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>0.985074626865672</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>0.993589743589744</v>
+        <v>0.980769230769231</v>
       </c>
       <c r="I26" s="2">
-        <v>0.993710691823899</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="J26" s="2">
-        <v>0.966210613598673</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="K26" s="2">
-        <v>0.957805907172996</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0.97119341563786</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>0.97119341563786</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>0.976430976430976</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>0.974910394265233</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2">
-        <v>0.958210784313726</v>
+        <v>0.96875</v>
       </c>
       <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.943396226415094</v>
+      </c>
+      <c r="S26" s="2">
         <v>0.972222222222222</v>
       </c>
-      <c r="R26" s="2">
-        <v>0.972474066813689</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0.971693121693122</v>
-      </c>
       <c r="T26" s="2">
-        <v>0.728695652173913</v>
+        <v>0.96</v>
       </c>
       <c r="U26" s="2">
-        <v>0.784875922199866</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="V26" s="2">
-        <v>0.87050505050505</v>
+        <v>0.96</v>
       </c>
       <c r="W26" s="2">
-        <v>0.806216931216931</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="X26" s="2">
-        <v>0.62719298245614</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="2">
-        <v>0.822791164658635</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="2">
         <v>0</v>
       </c>
       <c r="AA26" s="2">
-        <v>0.635416666666667</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2616,79 +2616,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.981132075471698</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>0.981481481481481</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>0.977272727272727</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>0.981132075471698</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>0.950617283950617</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I27" s="2">
-        <v>0.944444444444444</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="J27" s="2">
-        <v>0.950091575091575</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="K27" s="2">
-        <v>0.976190476190476</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0.975845410628019</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="T27" s="2">
         <v>0.970588235294118</v>
       </c>
-      <c r="N27" s="2">
-        <v>0.98876404494382</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.979423868312757</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.972602739726027</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.950248756218905</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0.937087342010941</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0.937950937950938</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0.701307189542484</v>
-      </c>
       <c r="U27" s="2">
-        <v>0.821056350468115</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="V27" s="2">
-        <v>0.886492374727669</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="W27" s="2">
-        <v>0.82521645021645</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="X27" s="2">
-        <v>0.615384615384615</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="2">
-        <v>0.788515406162465</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="2">
-        <v>0.635416666666667</v>
+        <v>0.875</v>
       </c>
       <c r="AA27" s="2">
         <v>0</v>
